--- a/mcmaster_excel/Metric_Steel_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Metric_Steel_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,206 +434,124 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>IP8, T8</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>110,000</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ASME B18.3.4M</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>96452A711</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>$10.38</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Black-Oxide Alloy Steel</t>
-        </is>
-      </c>
+          <t>Drive</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Lg.,mm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>HeadDia., mm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>HeadHt., mm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IP8, T8</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>110,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ASME B18.3.4M</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>96452A712</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Black-Oxide Alloy Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +596,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>96452A713</t>
+          <t>96452A711</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>$10.38</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -710,12 +628,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -725,7 +643,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>IP8, T8</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -745,17 +663,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>96452A714</t>
+          <t>96452A712</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -777,12 +695,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -792,7 +710,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>IP8, T8</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -812,17 +730,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>96452A715</t>
+          <t>96452A713</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>10.40</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -834,7 +752,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -879,12 +797,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>96452A716</t>
+          <t>96452A714</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -911,12 +829,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -926,7 +844,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>IP25, T25</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -946,17 +864,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>96452A717</t>
+          <t>96452A715</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -978,12 +896,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -993,7 +911,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>IP25, T25</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1013,17 +931,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>96452A718</t>
+          <t>96452A716</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1035,7 +953,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,12 +998,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>96452A719</t>
+          <t>96452A717</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12.72</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1112,12 +1030,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1127,7 +1045,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IP27, T27</t>
+          <t>IP25, T25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1147,17 +1065,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>96452A721</t>
+          <t>96452A718</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>16.26</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1179,12 +1097,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1194,7 +1112,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>IP27, T27</t>
+          <t>IP25, T25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1214,17 +1132,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>96452A722</t>
+          <t>96452A719</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>16.52</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1236,7 +1154,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1281,12 +1199,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>96452A723</t>
+          <t>96452A721</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>16.26</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1303,7 +1221,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1313,22 +1231,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>IP27, T27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1338,7 +1256,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3.4M</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1348,29 +1266,29 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>92832A106</t>
+          <t>96452A722</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>16.52</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>M2 × 0.4 mm</t>
+          <t>M6 × 1 mm</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Zinc-Plated Class 8.8 Steel</t>
+          <t>Black-Oxide Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1380,22 +1298,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>IP27, T27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1405,39 +1323,39 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3.4M</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>92832A107</t>
+          <t>96452A723</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>M2 × 0.4 mm</t>
+          <t>M6 × 1 mm</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Zinc-Plated Class 8.8 Steel</t>
+          <t>Black-Oxide Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1400,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>92832A108</t>
+          <t>92832A106</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1422,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1544,17 +1462,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>92832A109</t>
+          <t>92832A107</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1571,7 +1489,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1616,12 +1534,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>92832A111</t>
+          <t>92832A108</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1638,7 +1556,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1683,12 +1601,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>92832A113</t>
+          <t>92832A109</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1705,7 +1623,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1745,17 +1663,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>92832A561</t>
+          <t>92832A111</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1690,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1782,12 +1700,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1797,7 +1715,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1812,22 +1730,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>92832A172</t>
+          <t>92832A113</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>M2.5 × 0.45 mm</t>
+          <t>M2 × 0.4 mm</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1839,7 +1757,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1849,12 +1767,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1864,7 +1782,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1884,17 +1802,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>92832A173</t>
+          <t>92832A561</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13.39</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>M2.5 × 0.45 mm</t>
+          <t>M2 × 0.4 mm</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1906,7 +1824,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1946,17 +1864,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>92832A174</t>
+          <t>92832A172</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1973,7 +1891,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2018,12 +1936,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>92832A176</t>
+          <t>92832A173</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2040,7 +1958,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2085,12 +2003,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>92832A178</t>
+          <t>92832A174</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2107,7 +2025,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2152,12 +2070,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>92832A562</t>
+          <t>92832A176</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>11.62</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2174,7 +2092,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2219,12 +2137,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>92832A563</t>
+          <t>92832A178</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2241,7 +2159,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2281,17 +2199,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>92832A564</t>
+          <t>92832A562</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2308,7 +2226,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2318,12 +2236,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2333,7 +2251,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2343,7 +2261,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2353,17 +2271,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>92832A565</t>
+          <t>92832A563</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2375,7 +2293,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2385,12 +2303,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2400,7 +2318,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2410,27 +2328,27 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>92832A213</t>
+          <t>92832A564</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
+          <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2442,7 +2360,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2487,12 +2405,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>92832A214</t>
+          <t>92832A565</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2509,7 +2427,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2549,17 +2467,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>92832A215</t>
+          <t>92832A213</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2576,7 +2494,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2616,17 +2534,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>92832A217</t>
+          <t>92832A214</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2643,7 +2561,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2683,17 +2601,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>92832A219</t>
+          <t>92832A215</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2710,7 +2628,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2750,17 +2668,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>92832A221</t>
+          <t>92832A217</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2777,7 +2695,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2822,12 +2740,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>92832A566</t>
+          <t>92832A219</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2844,7 +2762,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2889,12 +2807,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>92832A225</t>
+          <t>92832A221</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2911,7 +2829,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2951,17 +2869,17 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>92832A229</t>
+          <t>92832A566</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>14.27</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2978,7 +2896,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3023,12 +2941,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>92832A234</t>
+          <t>92832A225</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3045,7 +2963,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3085,17 +3003,17 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>92832A567</t>
+          <t>92832A229</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3112,7 +3030,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3152,17 +3070,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>92832A568</t>
+          <t>92832A234</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3179,7 +3097,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3219,17 +3137,17 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>92832A569</t>
+          <t>92832A567</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10.56</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3246,7 +3164,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3256,12 +3174,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3271,7 +3189,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3286,22 +3204,22 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>92832A323</t>
+          <t>92832A568</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3313,7 +3231,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3323,12 +3241,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3338,7 +3256,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3353,22 +3271,22 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>92832A324</t>
+          <t>92832A569</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
+          <t>M3 × 0.5 mm</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3380,7 +3298,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3420,17 +3338,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>92832A326</t>
+          <t>92832A323</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3447,7 +3365,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3492,12 +3410,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>92832A328</t>
+          <t>92832A324</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3514,7 +3432,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3559,12 +3477,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>92832A330</t>
+          <t>92832A326</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3581,7 +3499,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3626,12 +3544,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>92832A570</t>
+          <t>92832A328</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3648,7 +3566,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3693,12 +3611,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>92832A334</t>
+          <t>92832A330</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3715,7 +3633,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3760,12 +3678,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>92832A338</t>
+          <t>92832A570</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3782,7 +3700,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3827,12 +3745,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>92832A343</t>
+          <t>92832A334</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3849,7 +3767,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3894,12 +3812,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>92832A348</t>
+          <t>92832A338</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3916,7 +3834,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3961,12 +3879,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>92832A571</t>
+          <t>92832A343</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>14.09</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3983,7 +3901,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4023,17 +3941,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>92832A572</t>
+          <t>92832A348</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4050,7 +3968,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4090,17 +4008,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>92832A573</t>
+          <t>92832A571</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>14.09</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4117,7 +4035,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4162,12 +4080,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>92832A574</t>
+          <t>92832A572</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4184,7 +4102,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4194,12 +4112,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4209,7 +4127,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4224,22 +4142,22 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>92832A575</t>
+          <t>92832A573</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4251,7 +4169,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4261,12 +4179,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4276,7 +4194,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4291,22 +4209,22 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>92832A576</t>
+          <t>92832A574</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
+          <t>M4 × 0.7 mm</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4318,7 +4236,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4358,17 +4276,17 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>92832A432</t>
+          <t>92832A575</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4385,7 +4303,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4430,12 +4348,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>92832A434</t>
+          <t>92832A576</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4452,7 +4370,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4497,7 +4415,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>92832A438</t>
+          <t>92832A432</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4519,7 +4437,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4564,12 +4482,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>92832A577</t>
+          <t>92832A434</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4586,7 +4504,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4631,12 +4549,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>92832A442</t>
+          <t>92832A438</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4653,7 +4571,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4698,12 +4616,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>92832A446</t>
+          <t>92832A577</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4720,7 +4638,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4765,12 +4683,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>92832A451</t>
+          <t>92832A442</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>9.74</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4787,7 +4705,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4827,17 +4745,17 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>92832A578</t>
+          <t>92832A446</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4854,7 +4772,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4894,17 +4812,17 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>92832A579</t>
+          <t>92832A451</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4921,7 +4839,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4966,12 +4884,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>92832A580</t>
+          <t>92832A578</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4988,7 +4906,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5033,12 +4951,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>92832A581</t>
+          <t>92832A579</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5055,7 +4973,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5095,17 +5013,17 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>92832A582</t>
+          <t>92832A580</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5122,7 +5040,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5162,17 +5080,17 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>92832A583</t>
+          <t>92832A581</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5189,7 +5107,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5199,12 +5117,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5214,7 +5132,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5229,22 +5147,22 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>92832A584</t>
+          <t>92832A582</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5256,7 +5174,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5266,12 +5184,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5281,7 +5199,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5296,22 +5214,22 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>92832A538</t>
+          <t>92832A583</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>15.91</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M5 × 0.8 mm</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5323,7 +5241,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5368,12 +5286,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>92832A540</t>
+          <t>92832A584</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5390,7 +5308,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5430,17 +5348,17 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>92832A585</t>
+          <t>92832A538</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>15.91</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5457,7 +5375,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5502,12 +5420,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>92832A544</t>
+          <t>92832A540</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5524,7 +5442,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5569,12 +5487,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>92832A548</t>
+          <t>92832A585</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>13.40</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5591,7 +5509,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5636,12 +5554,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>92832A553</t>
+          <t>92832A544</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5658,7 +5576,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5698,17 +5616,17 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>92832A586</t>
+          <t>92832A548</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5725,7 +5643,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5765,17 +5683,17 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>92832A587</t>
+          <t>92832A553</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5792,7 +5710,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5837,12 +5755,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>92832A588</t>
+          <t>92832A586</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5859,7 +5777,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5899,17 +5817,17 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>92832A589</t>
+          <t>92832A587</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5926,7 +5844,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5966,17 +5884,17 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>92832A711</t>
+          <t>92832A588</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5993,7 +5911,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6033,17 +5951,17 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>92832A590</t>
+          <t>92832A589</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10.46</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6060,7 +5978,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6100,17 +6018,17 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>92832A591</t>
+          <t>92832A711</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6127,19 +6045,59 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Torx</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>T30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>110,000</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>92832A590</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
@@ -6154,7 +6112,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6164,12 +6122,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6179,7 +6137,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6194,17 +6152,17 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>92832A592</t>
+          <t>92832A591</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6221,7 +6179,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6261,22 +6219,22 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>92832A593</t>
+          <t>92832A592</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M8 × 1.25 mm</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -6288,7 +6246,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6333,17 +6291,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>92832A594</t>
+          <t>92832A593</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M8 × 1.25 mm</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6355,7 +6313,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6395,22 +6353,22 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>92832A595</t>
+          <t>92832A594</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>13.28</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M8 × 1.25 mm</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -6422,7 +6380,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6467,17 +6425,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>92832A596</t>
+          <t>92832A595</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M8 × 1.25 mm</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -6489,7 +6447,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6534,17 +6492,17 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>92832A597</t>
+          <t>92832A596</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M8 × 1.25 mm</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -6556,7 +6514,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6601,17 +6559,17 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>92832A598</t>
+          <t>92832A597</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M8 × 1.25 mm</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6623,7 +6581,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6668,17 +6626,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>92832A599</t>
+          <t>92832A598</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M8 × 1.25 mm</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6690,7 +6648,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6730,22 +6688,22 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>92832A600</t>
+          <t>92832A599</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M8 × 1.25 mm</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -6757,7 +6715,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6797,22 +6755,22 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>92832A601</t>
+          <t>92832A600</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>11.47</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
+          <t>M8 × 1.25 mm</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -6824,65 +6782,132 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Torx</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>T40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>110,000</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>92832A601</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Class 8.8 Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>14.00</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>4.40</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Torx</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
         <is>
           <t>T40</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>110,000</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>110,000</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>ISO 7380</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>92832A602</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>13.67</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>Zinc-Plated Class 8.8 Steel</t>
         </is>
